--- a/UG/precalculus/A pretest precalculus.xlsx
+++ b/UG/precalculus/A pretest precalculus.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrolealdino/GitHub/Evaluation/UG/precalculus/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -90,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,16 +137,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -158,8 +169,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:V29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -511,7 +522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -538,7 +549,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>4</v>
       </c>
@@ -567,7 +578,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -625,11 +636,15 @@
       <c r="S4" s="3">
         <v>3.5</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="7">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <f>U4*100</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -687,11 +702,15 @@
       <c r="S5" s="3">
         <v>5</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="7">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <f t="shared" ref="V5:V29" si="0">U5*100</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -749,11 +768,15 @@
       <c r="S6" s="3">
         <v>4</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="7">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -811,11 +834,15 @@
       <c r="S7" s="3">
         <v>3.5</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="7">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>18</v>
       </c>
@@ -873,11 +900,15 @@
       <c r="S8" s="3">
         <v>3.5</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="7">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>14</v>
       </c>
@@ -935,11 +966,15 @@
       <c r="S9" s="3">
         <v>3.5</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="7">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -995,11 +1030,15 @@
       <c r="S10" s="3">
         <v>3</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1057,11 +1096,15 @@
       <c r="S11" s="3">
         <v>8</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="7">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1119,11 +1162,15 @@
       <c r="S12" s="3">
         <v>10</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="7">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1181,11 +1228,15 @@
       <c r="S13" s="3">
         <v>1.5</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>15</v>
       </c>
@@ -1243,11 +1294,15 @@
       <c r="S14" s="3">
         <v>4.5</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -1305,11 +1360,15 @@
       <c r="S15" s="3">
         <v>2.5</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="7">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1367,11 +1426,15 @@
       <c r="S16" s="3">
         <v>0.5</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="7">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -1429,11 +1492,15 @@
       <c r="S17" s="3">
         <v>7.5</v>
       </c>
-      <c r="U17" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -1491,11 +1558,15 @@
       <c r="S18" s="3">
         <v>2</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="7">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>9</v>
       </c>
@@ -1553,11 +1624,15 @@
       <c r="S19" s="3">
         <v>4.5</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>8</v>
       </c>
@@ -1615,11 +1690,15 @@
       <c r="S20" s="3">
         <v>5.5</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="7">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>23</v>
       </c>
@@ -1675,11 +1754,15 @@
       <c r="S21" s="3">
         <v>5</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="7">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>24</v>
       </c>
@@ -1735,11 +1818,15 @@
       <c r="S22" s="3">
         <v>9</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1797,11 +1884,15 @@
       <c r="S23" s="3">
         <v>5.5</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="7">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -1859,11 +1950,15 @@
       <c r="S24" s="3">
         <v>5</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="7">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -1921,11 +2016,15 @@
       <c r="S25" s="3">
         <v>5.5</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="7">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -1983,11 +2082,15 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-      <c r="U26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U26" s="7">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>11</v>
       </c>
@@ -2045,18 +2148,22 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-      <c r="U27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>2</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>16110279</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="3">
@@ -2107,15 +2214,19 @@
       <c r="S28" s="3">
         <v>2</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="7">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>9</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>16110279</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2169,8 +2280,12 @@
       <c r="S29" s="3">
         <v>5</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="7">
         <v>0.33</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
